--- a/data/trans_bre/P25_2-Edad-trans_bre.xlsx
+++ b/data/trans_bre/P25_2-Edad-trans_bre.xlsx
@@ -504,7 +504,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H17"/>
+  <dimension ref="A1:J18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -523,6 +523,8 @@
     <col width="14" customWidth="1" min="6" max="6"/>
     <col width="14" customWidth="1" min="7" max="7"/>
     <col width="14" customWidth="1" min="8" max="8"/>
+    <col width="14" customWidth="1" min="9" max="9"/>
+    <col width="14" customWidth="1" min="10" max="10"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -539,13 +541,15 @@
       </c>
       <c r="D1" s="3" t="n"/>
       <c r="E1" s="3" t="n"/>
-      <c r="F1" s="3" t="inlineStr">
+      <c r="F1" s="3" t="n"/>
+      <c r="G1" s="3" t="inlineStr">
         <is>
           <t>Brecha de género relativa</t>
         </is>
       </c>
-      <c r="G1" s="3" t="n"/>
       <c r="H1" s="3" t="n"/>
+      <c r="I1" s="3" t="n"/>
+      <c r="J1" s="3" t="n"/>
     </row>
     <row r="2">
       <c r="A2" s="4" t="n"/>
@@ -567,17 +571,27 @@
       </c>
       <c r="F2" s="3" t="inlineStr">
         <is>
+          <t>M5</t>
+        </is>
+      </c>
+      <c r="G2" s="3" t="inlineStr">
+        <is>
           <t>M2</t>
         </is>
       </c>
-      <c r="G2" s="3" t="inlineStr">
+      <c r="H2" s="3" t="inlineStr">
         <is>
           <t>M3</t>
         </is>
       </c>
-      <c r="H2" s="3" t="inlineStr">
+      <c r="I2" s="3" t="inlineStr">
         <is>
           <t>M4</t>
+        </is>
+      </c>
+      <c r="J2" s="3" t="inlineStr">
+        <is>
+          <t>M5</t>
         </is>
       </c>
     </row>
@@ -590,6 +604,8 @@
       <c r="F3" s="2" t="n"/>
       <c r="G3" s="2" t="n"/>
       <c r="H3" s="2" t="n"/>
+      <c r="I3" s="2" t="n"/>
+      <c r="J3" s="2" t="n"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
@@ -604,32 +620,42 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>1,65</t>
+          <t>0,0</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>4,59</t>
+          <t>4,09</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>1,71</t>
+          <t>0,0</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
+          <t>0,0</t>
+        </is>
+      </c>
+      <c r="G4" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="H4" s="2" t="inlineStr">
+        <is>
           <t>inf%</t>
         </is>
       </c>
-      <c r="G4" s="2" t="inlineStr">
-        <is>
-          <t>inf%</t>
-        </is>
-      </c>
-      <c r="H4" s="2" t="inlineStr">
-        <is>
-          <t>inf%</t>
+      <c r="I4" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="J4" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
         </is>
       </c>
     </row>
@@ -642,17 +668,17 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>0,0; 9,4</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>0,76; 11,56</t>
+          <t>0,0; 13,66</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>0,0; 9,32</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
@@ -666,6 +692,16 @@
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="I5" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="J5" s="2" t="inlineStr">
         <is>
           <t>—; —</t>
         </is>
@@ -684,32 +720,42 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>-1,84</t>
+          <t>-3,86</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>0,93</t>
+          <t>-2,28</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>0,36</t>
+          <t>-1,69</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>-45,84%</t>
+          <t>-1,72</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>36,22%</t>
+          <t>-69,01%</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>17,65%</t>
+          <t>-59,35%</t>
+        </is>
+      </c>
+      <c r="I6" s="2" t="inlineStr">
+        <is>
+          <t>-47,79%</t>
+        </is>
+      </c>
+      <c r="J6" s="2" t="inlineStr">
+        <is>
+          <t>-47,41%</t>
         </is>
       </c>
     </row>
@@ -722,22 +768,22 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>-8,42; 3,05</t>
+          <t>-12,86; 2,4</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>-4,77; 6,32</t>
+          <t>-10,85; 2,85</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>-3,54; 5,83</t>
+          <t>-9,94; 3,86</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-10,03; 3,88</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
@@ -746,6 +792,16 @@
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="I7" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="J7" s="2" t="inlineStr">
         <is>
           <t>—; —</t>
         </is>
@@ -764,32 +820,42 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>-2,71</t>
+          <t>0,51</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>-4,94</t>
+          <t>-4,16</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>-5,77</t>
+          <t>-3,24</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>-55,21%</t>
+          <t>1,27</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>-69,7%</t>
+          <t>33,78%</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>-79,8%</t>
+          <t>-79,6%</t>
+        </is>
+      </c>
+      <c r="I8" s="2" t="inlineStr">
+        <is>
+          <t>-77,59%</t>
+        </is>
+      </c>
+      <c r="J8" s="2" t="inlineStr">
+        <is>
+          <t>20,36%</t>
         </is>
       </c>
     </row>
@@ -802,32 +868,42 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>-7,99; 1,58</t>
+          <t>-3,84; 4,06</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>-10,95; -0,09</t>
+          <t>-14,41; 0,5</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>-12,37; -1,38</t>
+          <t>-11,27; 0,54</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>-100,0; 127,8</t>
+          <t>-7,15; 13,01</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>-100,0; 43,36</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>-100,0; 8,71</t>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="I9" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="J9" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
         </is>
       </c>
     </row>
@@ -844,32 +920,42 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>-3,54</t>
+          <t>-1,53</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>-2,07</t>
+          <t>-2,05</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>-1,81</t>
+          <t>-0,6</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>-18,23%</t>
+          <t>0,71</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>-14,05%</t>
+          <t>-7,6%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>-9,81%</t>
+          <t>-13,54%</t>
+        </is>
+      </c>
+      <c r="I10" s="2" t="inlineStr">
+        <is>
+          <t>-2,96%</t>
+        </is>
+      </c>
+      <c r="J10" s="2" t="inlineStr">
+        <is>
+          <t>3,68%</t>
         </is>
       </c>
     </row>
@@ -882,32 +968,42 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>-14,23; 4,15</t>
+          <t>-13,06; 10,24</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>-10,44; 6,07</t>
+          <t>-15,25; 7,01</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>-10,97; 6,84</t>
+          <t>-12,48; 11,66</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>-54,43; 30,44</t>
+          <t>-11,69; 12,84</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>-54,28; 58,76</t>
+          <t>-50,19; 78,82</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>-46,96; 53,48</t>
+          <t>-66,34; 81,55</t>
+        </is>
+      </c>
+      <c r="I11" s="2" t="inlineStr">
+        <is>
+          <t>-48,09; 90,15</t>
+        </is>
+      </c>
+      <c r="J11" s="2" t="inlineStr">
+        <is>
+          <t>-43,96; 100,55</t>
         </is>
       </c>
     </row>
@@ -924,32 +1020,42 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t>-11,73</t>
+          <t>-4,68</t>
         </is>
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
-          <t>-7,69</t>
+          <t>1,27</t>
         </is>
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>-11,66</t>
+          <t>-4,92</t>
         </is>
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>-28,86%</t>
+          <t>2,39</t>
         </is>
       </c>
       <c r="G12" s="2" t="inlineStr">
         <is>
-          <t>-23,34%</t>
+          <t>-13,12%</t>
         </is>
       </c>
       <c r="H12" s="2" t="inlineStr">
         <is>
-          <t>-26,86%</t>
+          <t>4,91%</t>
+        </is>
+      </c>
+      <c r="I12" s="2" t="inlineStr">
+        <is>
+          <t>-13,98%</t>
+        </is>
+      </c>
+      <c r="J12" s="2" t="inlineStr">
+        <is>
+          <t>6,31%</t>
         </is>
       </c>
     </row>
@@ -962,32 +1068,42 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>-23,71; 0,6</t>
+          <t>-20,32; 12,62</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>-20,44; 4,31</t>
+          <t>-13,93; 17,39</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>-25,11; 1,66</t>
+          <t>-20,49; 12,86</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>-51,19; 1,83</t>
+          <t>-16,25; 20,51</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>-51,02; 17,52</t>
+          <t>-49,7; 43,71</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>-50,22; 4,51</t>
+          <t>-42,28; 96,42</t>
+        </is>
+      </c>
+      <c r="I13" s="2" t="inlineStr">
+        <is>
+          <t>-49,45; 45,95</t>
+        </is>
+      </c>
+      <c r="J13" s="2" t="inlineStr">
+        <is>
+          <t>-33,93; 69,47</t>
         </is>
       </c>
     </row>
@@ -1004,32 +1120,42 @@
       </c>
       <c r="C14" s="2" t="inlineStr">
         <is>
-          <t>13,53</t>
+          <t>5,27</t>
         </is>
       </c>
       <c r="D14" s="2" t="inlineStr">
         <is>
-          <t>-1,68</t>
+          <t>-4,98</t>
         </is>
       </c>
       <c r="E14" s="2" t="inlineStr">
         <is>
-          <t>11,77</t>
+          <t>-9,88</t>
         </is>
       </c>
       <c r="F14" s="2" t="inlineStr">
         <is>
-          <t>26,6%</t>
+          <t>-12,75</t>
         </is>
       </c>
       <c r="G14" s="2" t="inlineStr">
         <is>
-          <t>-3,43%</t>
+          <t>9,76%</t>
         </is>
       </c>
       <c r="H14" s="2" t="inlineStr">
         <is>
-          <t>20,13%</t>
+          <t>-9,22%</t>
+        </is>
+      </c>
+      <c r="I14" s="2" t="inlineStr">
+        <is>
+          <t>-15,02%</t>
+        </is>
+      </c>
+      <c r="J14" s="2" t="inlineStr">
+        <is>
+          <t>-23,36%</t>
         </is>
       </c>
     </row>
@@ -1042,32 +1168,42 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>-2,06; 28,2</t>
+          <t>-16,73; 25,4</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>-20,97; 13,08</t>
+          <t>-27,57; 15,75</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>-3,27; 29,58</t>
+          <t>-31,52; 11,57</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>-2,75; 67,23</t>
+          <t>-39,05; 7,37</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>-40,37; 32,49</t>
+          <t>-26,59; 60,43</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>-4,96; 57,79</t>
+          <t>-42,96; 38,24</t>
+        </is>
+      </c>
+      <c r="I15" s="2" t="inlineStr">
+        <is>
+          <t>-43,45; 20,4</t>
+        </is>
+      </c>
+      <c r="J15" s="2" t="inlineStr">
+        <is>
+          <t>-57,87; 18,67</t>
         </is>
       </c>
     </row>
@@ -1084,32 +1220,42 @@
       </c>
       <c r="C16" s="2" t="inlineStr">
         <is>
-          <t>-0,76</t>
+          <t>-2,36</t>
         </is>
       </c>
       <c r="D16" s="2" t="inlineStr">
         <is>
-          <t>-0,88</t>
+          <t>-2,42</t>
         </is>
       </c>
       <c r="E16" s="2" t="inlineStr">
         <is>
-          <t>1,99</t>
+          <t>-2,94</t>
         </is>
       </c>
       <c r="F16" s="2" t="inlineStr">
         <is>
-          <t>-4,07%</t>
+          <t>0,3</t>
         </is>
       </c>
       <c r="G16" s="2" t="inlineStr">
         <is>
-          <t>-5,62%</t>
+          <t>-12,79%</t>
         </is>
       </c>
       <c r="H16" s="2" t="inlineStr">
         <is>
-          <t>10,86%</t>
+          <t>-15,57%</t>
+        </is>
+      </c>
+      <c r="I16" s="2" t="inlineStr">
+        <is>
+          <t>-15,96%</t>
+        </is>
+      </c>
+      <c r="J16" s="2" t="inlineStr">
+        <is>
+          <t>1,62%</t>
         </is>
       </c>
     </row>
@@ -1122,44 +1268,61 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>-4,99; 3,13</t>
+          <t>-7,99; 3,34</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>-4,79; 3,14</t>
+          <t>-7,2; 3,04</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>-3,08; 9,31</t>
+          <t>-8,36; 3,18</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>-23,79; 18,98</t>
+          <t>-5,5; 6,87</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>-26,86; 22,53</t>
+          <t>-37,15; 21,58</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>-15,9; 58,76</t>
+          <t>-38,96; 26,51</t>
+        </is>
+      </c>
+      <c r="I17" s="2" t="inlineStr">
+        <is>
+          <t>-39,18; 20,35</t>
+        </is>
+      </c>
+      <c r="J17" s="2" t="inlineStr">
+        <is>
+          <t>-26,01; 46,78</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Sanitaria y Social de Andalucía (Panel 1 en Medición 4)</t>
         </is>
       </c>
     </row>
   </sheetData>
   <mergeCells count="10">
-    <mergeCell ref="C1:E1"/>
     <mergeCell ref="A8:A9"/>
     <mergeCell ref="A12:A13"/>
     <mergeCell ref="A4:A5"/>
-    <mergeCell ref="F1:H1"/>
     <mergeCell ref="A1:B2"/>
+    <mergeCell ref="C1:F1"/>
     <mergeCell ref="A16:A17"/>
+    <mergeCell ref="G1:J1"/>
     <mergeCell ref="A6:A7"/>
     <mergeCell ref="A10:A11"/>
     <mergeCell ref="A14:A15"/>

--- a/data/trans_bre/P25_2-Edad-trans_bre.xlsx
+++ b/data/trans_bre/P25_2-Edad-trans_bre.xlsx
@@ -16,7 +16,10 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="0"/>
+  <numFmts count="2">
+    <numFmt numFmtId="164" formatCode="0.##"/>
+    <numFmt numFmtId="165" formatCode="0.##%"/>
+  </numFmts>
   <fonts count="2">
     <font>
       <name val="Calibri"/>
@@ -125,7 +128,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
@@ -138,6 +141,12 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="left" vertical="bottom"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="left" vertical="bottom"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -504,7 +513,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J18"/>
+  <dimension ref="A1:J25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -618,299 +627,151 @@
           <t>Estimación</t>
         </is>
       </c>
-      <c r="C4" s="2" t="inlineStr">
-        <is>
-          <t>0,0</t>
-        </is>
-      </c>
-      <c r="D4" s="2" t="inlineStr">
-        <is>
-          <t>4,09</t>
-        </is>
-      </c>
-      <c r="E4" s="2" t="inlineStr">
-        <is>
-          <t>0,0</t>
-        </is>
-      </c>
-      <c r="F4" s="2" t="inlineStr">
-        <is>
-          <t>0,0</t>
-        </is>
-      </c>
-      <c r="G4" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="H4" s="2" t="inlineStr">
-        <is>
-          <t>inf%</t>
-        </is>
-      </c>
-      <c r="I4" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="J4" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
+      <c r="C4" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="D4" s="5" t="n">
+        <v>4.899235473123541</v>
+      </c>
+      <c r="E4" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="F4" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="G4" s="6" t="inlineStr"/>
+      <c r="H4" s="6" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
+      </c>
+      <c r="I4" s="6" t="inlineStr"/>
+      <c r="J4" s="6" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n"/>
       <c r="B5" s="3" t="inlineStr">
         <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C5" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="D5" s="2" t="inlineStr">
-        <is>
-          <t>0,0; 13,66</t>
-        </is>
-      </c>
-      <c r="E5" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="F5" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="G5" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="H5" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="I5" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="J5" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C5" s="5" t="inlineStr"/>
+      <c r="D5" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="E5" s="5" t="inlineStr"/>
+      <c r="F5" s="5" t="inlineStr"/>
+      <c r="G5" s="6" t="inlineStr"/>
+      <c r="H5" s="6" t="inlineStr"/>
+      <c r="I5" s="6" t="inlineStr"/>
+      <c r="J5" s="6" t="inlineStr"/>
     </row>
     <row r="6">
-      <c r="A6" s="1" t="inlineStr">
+      <c r="A6" s="1" t="n"/>
+      <c r="B6" s="3" t="inlineStr">
+        <is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C6" s="5" t="inlineStr"/>
+      <c r="D6" s="5" t="n">
+        <v>16.44238666813218</v>
+      </c>
+      <c r="E6" s="5" t="inlineStr"/>
+      <c r="F6" s="5" t="inlineStr"/>
+      <c r="G6" s="6" t="inlineStr"/>
+      <c r="H6" s="6" t="inlineStr"/>
+      <c r="I6" s="6" t="inlineStr"/>
+      <c r="J6" s="6" t="inlineStr"/>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="inlineStr">
         <is>
           <t>25-34</t>
         </is>
       </c>
-      <c r="B6" s="3" t="inlineStr">
+      <c r="B7" s="3" t="inlineStr">
         <is>
           <t>Estimación</t>
         </is>
       </c>
-      <c r="C6" s="2" t="inlineStr">
-        <is>
-          <t>-3,86</t>
-        </is>
-      </c>
-      <c r="D6" s="2" t="inlineStr">
-        <is>
-          <t>-2,28</t>
-        </is>
-      </c>
-      <c r="E6" s="2" t="inlineStr">
-        <is>
-          <t>-1,69</t>
-        </is>
-      </c>
-      <c r="F6" s="2" t="inlineStr">
-        <is>
-          <t>-1,72</t>
-        </is>
-      </c>
-      <c r="G6" s="2" t="inlineStr">
-        <is>
-          <t>-69,01%</t>
-        </is>
-      </c>
-      <c r="H6" s="2" t="inlineStr">
-        <is>
-          <t>-59,35%</t>
-        </is>
-      </c>
-      <c r="I6" s="2" t="inlineStr">
-        <is>
-          <t>-47,79%</t>
-        </is>
-      </c>
-      <c r="J6" s="2" t="inlineStr">
-        <is>
-          <t>-47,41%</t>
-        </is>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="1" t="n"/>
-      <c r="B7" s="3" t="inlineStr">
-        <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C7" s="2" t="inlineStr">
-        <is>
-          <t>-12,86; 2,4</t>
-        </is>
-      </c>
-      <c r="D7" s="2" t="inlineStr">
-        <is>
-          <t>-10,85; 2,85</t>
-        </is>
-      </c>
-      <c r="E7" s="2" t="inlineStr">
-        <is>
-          <t>-9,94; 3,86</t>
-        </is>
-      </c>
-      <c r="F7" s="2" t="inlineStr">
-        <is>
-          <t>-10,03; 3,88</t>
-        </is>
-      </c>
-      <c r="G7" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="H7" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="I7" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="J7" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
+      <c r="C7" s="5" t="n">
+        <v>-7.126625869183687</v>
+      </c>
+      <c r="D7" s="5" t="n">
+        <v>-2.223759941966835</v>
+      </c>
+      <c r="E7" s="5" t="n">
+        <v>-2.561621754855355</v>
+      </c>
+      <c r="F7" s="5" t="n">
+        <v>-2.222788443344907</v>
+      </c>
+      <c r="G7" s="6" t="n">
+        <v>-0.8098716733827925</v>
+      </c>
+      <c r="H7" s="6" t="n">
+        <v>-0.579256644942005</v>
+      </c>
+      <c r="I7" s="6" t="n">
+        <v>-0.5861929911684391</v>
+      </c>
+      <c r="J7" s="6" t="n">
+        <v>-0.543625447449497</v>
       </c>
     </row>
     <row r="8">
-      <c r="A8" s="1" t="inlineStr">
-        <is>
-          <t>35-44</t>
-        </is>
-      </c>
+      <c r="A8" s="1" t="n"/>
       <c r="B8" s="3" t="inlineStr">
         <is>
-          <t>Estimación</t>
-        </is>
-      </c>
-      <c r="C8" s="2" t="inlineStr">
-        <is>
-          <t>0,51</t>
-        </is>
-      </c>
-      <c r="D8" s="2" t="inlineStr">
-        <is>
-          <t>-4,16</t>
-        </is>
-      </c>
-      <c r="E8" s="2" t="inlineStr">
-        <is>
-          <t>-3,24</t>
-        </is>
-      </c>
-      <c r="F8" s="2" t="inlineStr">
-        <is>
-          <t>1,27</t>
-        </is>
-      </c>
-      <c r="G8" s="2" t="inlineStr">
-        <is>
-          <t>33,78%</t>
-        </is>
-      </c>
-      <c r="H8" s="2" t="inlineStr">
-        <is>
-          <t>-79,6%</t>
-        </is>
-      </c>
-      <c r="I8" s="2" t="inlineStr">
-        <is>
-          <t>-77,59%</t>
-        </is>
-      </c>
-      <c r="J8" s="2" t="inlineStr">
-        <is>
-          <t>20,36%</t>
-        </is>
-      </c>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C8" s="5" t="n">
+        <v>-26.10775985600305</v>
+      </c>
+      <c r="D8" s="5" t="n">
+        <v>-10.39812971936595</v>
+      </c>
+      <c r="E8" s="5" t="n">
+        <v>-14.13788418890966</v>
+      </c>
+      <c r="F8" s="5" t="n">
+        <v>-12.38103371108537</v>
+      </c>
+      <c r="G8" s="6" t="inlineStr"/>
+      <c r="H8" s="6" t="inlineStr"/>
+      <c r="I8" s="6" t="inlineStr"/>
+      <c r="J8" s="6" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n"/>
       <c r="B9" s="3" t="inlineStr">
         <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C9" s="2" t="inlineStr">
-        <is>
-          <t>-3,84; 4,06</t>
-        </is>
-      </c>
-      <c r="D9" s="2" t="inlineStr">
-        <is>
-          <t>-14,41; 0,5</t>
-        </is>
-      </c>
-      <c r="E9" s="2" t="inlineStr">
-        <is>
-          <t>-11,27; 0,54</t>
-        </is>
-      </c>
-      <c r="F9" s="2" t="inlineStr">
-        <is>
-          <t>-7,15; 13,01</t>
-        </is>
-      </c>
-      <c r="G9" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="H9" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="I9" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="J9" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C9" s="5" t="n">
+        <v>1.265592510497588</v>
+      </c>
+      <c r="D9" s="5" t="n">
+        <v>3.116541695486448</v>
+      </c>
+      <c r="E9" s="5" t="n">
+        <v>3.543272388405621</v>
+      </c>
+      <c r="F9" s="5" t="n">
+        <v>3.65573882901944</v>
+      </c>
+      <c r="G9" s="6" t="inlineStr"/>
+      <c r="H9" s="6" t="inlineStr"/>
+      <c r="I9" s="6" t="inlineStr"/>
+      <c r="J9" s="6" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>45-54</t>
+          <t>35-44</t>
         </is>
       </c>
       <c r="B10" s="3" t="inlineStr">
@@ -918,299 +779,183 @@
           <t>Estimación</t>
         </is>
       </c>
-      <c r="C10" s="2" t="inlineStr">
-        <is>
-          <t>-1,53</t>
-        </is>
-      </c>
-      <c r="D10" s="2" t="inlineStr">
-        <is>
-          <t>-2,05</t>
-        </is>
-      </c>
-      <c r="E10" s="2" t="inlineStr">
-        <is>
-          <t>-0,6</t>
-        </is>
-      </c>
-      <c r="F10" s="2" t="inlineStr">
-        <is>
-          <t>0,71</t>
-        </is>
-      </c>
-      <c r="G10" s="2" t="inlineStr">
-        <is>
-          <t>-7,6%</t>
-        </is>
-      </c>
-      <c r="H10" s="2" t="inlineStr">
-        <is>
-          <t>-13,54%</t>
-        </is>
-      </c>
-      <c r="I10" s="2" t="inlineStr">
-        <is>
-          <t>-2,96%</t>
-        </is>
-      </c>
-      <c r="J10" s="2" t="inlineStr">
-        <is>
-          <t>3,68%</t>
-        </is>
+      <c r="C10" s="5" t="n">
+        <v>0.7403286680537283</v>
+      </c>
+      <c r="D10" s="5" t="n">
+        <v>-4.022960403762761</v>
+      </c>
+      <c r="E10" s="5" t="n">
+        <v>-2.81644278021089</v>
+      </c>
+      <c r="F10" s="5" t="n">
+        <v>1.603160136084494</v>
+      </c>
+      <c r="G10" s="6" t="n">
+        <v>0.5459200121922595</v>
+      </c>
+      <c r="H10" s="6" t="n">
+        <v>-0.7551887209755198</v>
+      </c>
+      <c r="I10" s="6" t="n">
+        <v>-0.6926885621094114</v>
+      </c>
+      <c r="J10" s="6" t="n">
+        <v>0.2867662856704631</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="n"/>
       <c r="B11" s="3" t="inlineStr">
         <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C11" s="2" t="inlineStr">
-        <is>
-          <t>-13,06; 10,24</t>
-        </is>
-      </c>
-      <c r="D11" s="2" t="inlineStr">
-        <is>
-          <t>-15,25; 7,01</t>
-        </is>
-      </c>
-      <c r="E11" s="2" t="inlineStr">
-        <is>
-          <t>-12,48; 11,66</t>
-        </is>
-      </c>
-      <c r="F11" s="2" t="inlineStr">
-        <is>
-          <t>-11,69; 12,84</t>
-        </is>
-      </c>
-      <c r="G11" s="2" t="inlineStr">
-        <is>
-          <t>-50,19; 78,82</t>
-        </is>
-      </c>
-      <c r="H11" s="2" t="inlineStr">
-        <is>
-          <t>-66,34; 81,55</t>
-        </is>
-      </c>
-      <c r="I11" s="2" t="inlineStr">
-        <is>
-          <t>-48,09; 90,15</t>
-        </is>
-      </c>
-      <c r="J11" s="2" t="inlineStr">
-        <is>
-          <t>-43,96; 100,55</t>
-        </is>
-      </c>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C11" s="5" t="n">
+        <v>-3.195338646882635</v>
+      </c>
+      <c r="D11" s="5" t="n">
+        <v>-14.3138860276625</v>
+      </c>
+      <c r="E11" s="5" t="n">
+        <v>-9.993004915767036</v>
+      </c>
+      <c r="F11" s="5" t="n">
+        <v>-6.220716404948641</v>
+      </c>
+      <c r="G11" s="6" t="inlineStr"/>
+      <c r="H11" s="6" t="inlineStr"/>
+      <c r="I11" s="6" t="inlineStr"/>
+      <c r="J11" s="6" t="inlineStr"/>
     </row>
     <row r="12">
-      <c r="A12" s="1" t="inlineStr">
-        <is>
-          <t>55-64</t>
-        </is>
-      </c>
+      <c r="A12" s="1" t="n"/>
       <c r="B12" s="3" t="inlineStr">
         <is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C12" s="5" t="n">
+        <v>4.825987339041045</v>
+      </c>
+      <c r="D12" s="5" t="n">
+        <v>1.113064982111551</v>
+      </c>
+      <c r="E12" s="5" t="n">
+        <v>1.276372910119458</v>
+      </c>
+      <c r="F12" s="5" t="n">
+        <v>12.43002316288218</v>
+      </c>
+      <c r="G12" s="6" t="inlineStr"/>
+      <c r="H12" s="6" t="inlineStr"/>
+      <c r="I12" s="6" t="inlineStr"/>
+      <c r="J12" s="6" t="inlineStr"/>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="inlineStr">
+        <is>
+          <t>45-54</t>
+        </is>
+      </c>
+      <c r="B13" s="3" t="inlineStr">
+        <is>
           <t>Estimación</t>
         </is>
       </c>
-      <c r="C12" s="2" t="inlineStr">
-        <is>
-          <t>-4,68</t>
-        </is>
-      </c>
-      <c r="D12" s="2" t="inlineStr">
-        <is>
-          <t>1,27</t>
-        </is>
-      </c>
-      <c r="E12" s="2" t="inlineStr">
-        <is>
-          <t>-4,92</t>
-        </is>
-      </c>
-      <c r="F12" s="2" t="inlineStr">
-        <is>
-          <t>2,39</t>
-        </is>
-      </c>
-      <c r="G12" s="2" t="inlineStr">
-        <is>
-          <t>-13,12%</t>
-        </is>
-      </c>
-      <c r="H12" s="2" t="inlineStr">
-        <is>
-          <t>4,91%</t>
-        </is>
-      </c>
-      <c r="I12" s="2" t="inlineStr">
-        <is>
-          <t>-13,98%</t>
-        </is>
-      </c>
-      <c r="J12" s="2" t="inlineStr">
-        <is>
-          <t>6,31%</t>
-        </is>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" s="1" t="n"/>
-      <c r="B13" s="3" t="inlineStr">
-        <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C13" s="2" t="inlineStr">
-        <is>
-          <t>-20,32; 12,62</t>
-        </is>
-      </c>
-      <c r="D13" s="2" t="inlineStr">
-        <is>
-          <t>-13,93; 17,39</t>
-        </is>
-      </c>
-      <c r="E13" s="2" t="inlineStr">
-        <is>
-          <t>-20,49; 12,86</t>
-        </is>
-      </c>
-      <c r="F13" s="2" t="inlineStr">
-        <is>
-          <t>-16,25; 20,51</t>
-        </is>
-      </c>
-      <c r="G13" s="2" t="inlineStr">
-        <is>
-          <t>-49,7; 43,71</t>
-        </is>
-      </c>
-      <c r="H13" s="2" t="inlineStr">
-        <is>
-          <t>-42,28; 96,42</t>
-        </is>
-      </c>
-      <c r="I13" s="2" t="inlineStr">
-        <is>
-          <t>-49,45; 45,95</t>
-        </is>
-      </c>
-      <c r="J13" s="2" t="inlineStr">
-        <is>
-          <t>-33,93; 69,47</t>
-        </is>
+      <c r="C13" s="5" t="n">
+        <v>-2.049775760021205</v>
+      </c>
+      <c r="D13" s="5" t="n">
+        <v>-2.576367342577959</v>
+      </c>
+      <c r="E13" s="5" t="n">
+        <v>-1.528402695978948</v>
+      </c>
+      <c r="F13" s="5" t="n">
+        <v>-0.09951088467753944</v>
+      </c>
+      <c r="G13" s="6" t="n">
+        <v>-0.1037867491148396</v>
+      </c>
+      <c r="H13" s="6" t="n">
+        <v>-0.1671157432187083</v>
+      </c>
+      <c r="I13" s="6" t="n">
+        <v>-0.07353224096465616</v>
+      </c>
+      <c r="J13" s="6" t="n">
+        <v>-0.004850088598229129</v>
       </c>
     </row>
     <row r="14">
-      <c r="A14" s="1" t="inlineStr">
-        <is>
-          <t>65 Y MAS</t>
-        </is>
-      </c>
+      <c r="A14" s="1" t="n"/>
       <c r="B14" s="3" t="inlineStr">
         <is>
-          <t>Estimación</t>
-        </is>
-      </c>
-      <c r="C14" s="2" t="inlineStr">
-        <is>
-          <t>5,27</t>
-        </is>
-      </c>
-      <c r="D14" s="2" t="inlineStr">
-        <is>
-          <t>-4,98</t>
-        </is>
-      </c>
-      <c r="E14" s="2" t="inlineStr">
-        <is>
-          <t>-9,88</t>
-        </is>
-      </c>
-      <c r="F14" s="2" t="inlineStr">
-        <is>
-          <t>-12,75</t>
-        </is>
-      </c>
-      <c r="G14" s="2" t="inlineStr">
-        <is>
-          <t>9,76%</t>
-        </is>
-      </c>
-      <c r="H14" s="2" t="inlineStr">
-        <is>
-          <t>-9,22%</t>
-        </is>
-      </c>
-      <c r="I14" s="2" t="inlineStr">
-        <is>
-          <t>-15,02%</t>
-        </is>
-      </c>
-      <c r="J14" s="2" t="inlineStr">
-        <is>
-          <t>-23,36%</t>
-        </is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C14" s="5" t="n">
+        <v>-13.69765303034997</v>
+      </c>
+      <c r="D14" s="5" t="n">
+        <v>-16.02308005858104</v>
+      </c>
+      <c r="E14" s="5" t="n">
+        <v>-14.07906156241622</v>
+      </c>
+      <c r="F14" s="5" t="n">
+        <v>-13.05156795079932</v>
+      </c>
+      <c r="G14" s="6" t="n">
+        <v>-0.5247803026070625</v>
+      </c>
+      <c r="H14" s="6" t="n">
+        <v>-0.6923971447183848</v>
+      </c>
+      <c r="I14" s="6" t="n">
+        <v>-0.5151461128200305</v>
+      </c>
+      <c r="J14" s="6" t="n">
+        <v>-0.4707039821269804</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="1" t="n"/>
       <c r="B15" s="3" t="inlineStr">
         <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C15" s="2" t="inlineStr">
-        <is>
-          <t>-16,73; 25,4</t>
-        </is>
-      </c>
-      <c r="D15" s="2" t="inlineStr">
-        <is>
-          <t>-27,57; 15,75</t>
-        </is>
-      </c>
-      <c r="E15" s="2" t="inlineStr">
-        <is>
-          <t>-31,52; 11,57</t>
-        </is>
-      </c>
-      <c r="F15" s="2" t="inlineStr">
-        <is>
-          <t>-39,05; 7,37</t>
-        </is>
-      </c>
-      <c r="G15" s="2" t="inlineStr">
-        <is>
-          <t>-26,59; 60,43</t>
-        </is>
-      </c>
-      <c r="H15" s="2" t="inlineStr">
-        <is>
-          <t>-42,96; 38,24</t>
-        </is>
-      </c>
-      <c r="I15" s="2" t="inlineStr">
-        <is>
-          <t>-43,45; 20,4</t>
-        </is>
-      </c>
-      <c r="J15" s="2" t="inlineStr">
-        <is>
-          <t>-57,87; 18,67</t>
-        </is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C15" s="5" t="n">
+        <v>9.338251162640029</v>
+      </c>
+      <c r="D15" s="5" t="n">
+        <v>6.584180949894342</v>
+      </c>
+      <c r="E15" s="5" t="n">
+        <v>10.36872311034123</v>
+      </c>
+      <c r="F15" s="5" t="n">
+        <v>12.06056546372197</v>
+      </c>
+      <c r="G15" s="6" t="n">
+        <v>0.7109515056709453</v>
+      </c>
+      <c r="H15" s="6" t="n">
+        <v>0.6741321500211865</v>
+      </c>
+      <c r="I15" s="6" t="n">
+        <v>0.7887880768074617</v>
+      </c>
+      <c r="J15" s="6" t="n">
+        <v>0.9043254054694434</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
         <is>
-          <t>Total</t>
+          <t>55-64</t>
         </is>
       </c>
       <c r="B16" s="3" t="inlineStr">
@@ -1218,97 +963,297 @@
           <t>Estimación</t>
         </is>
       </c>
-      <c r="C16" s="2" t="inlineStr">
-        <is>
-          <t>-2,36</t>
-        </is>
-      </c>
-      <c r="D16" s="2" t="inlineStr">
-        <is>
-          <t>-2,42</t>
-        </is>
-      </c>
-      <c r="E16" s="2" t="inlineStr">
-        <is>
-          <t>-2,94</t>
-        </is>
-      </c>
-      <c r="F16" s="2" t="inlineStr">
-        <is>
-          <t>0,3</t>
-        </is>
-      </c>
-      <c r="G16" s="2" t="inlineStr">
-        <is>
-          <t>-12,79%</t>
-        </is>
-      </c>
-      <c r="H16" s="2" t="inlineStr">
-        <is>
-          <t>-15,57%</t>
-        </is>
-      </c>
-      <c r="I16" s="2" t="inlineStr">
-        <is>
-          <t>-15,96%</t>
-        </is>
-      </c>
-      <c r="J16" s="2" t="inlineStr">
-        <is>
-          <t>1,62%</t>
-        </is>
+      <c r="C16" s="5" t="n">
+        <v>-4.090309969899869</v>
+      </c>
+      <c r="D16" s="5" t="n">
+        <v>2.014139996619097</v>
+      </c>
+      <c r="E16" s="5" t="n">
+        <v>-4.127114346006677</v>
+      </c>
+      <c r="F16" s="5" t="n">
+        <v>2.175732681140158</v>
+      </c>
+      <c r="G16" s="6" t="n">
+        <v>-0.1192551125157894</v>
+      </c>
+      <c r="H16" s="6" t="n">
+        <v>0.08124125264786625</v>
+      </c>
+      <c r="I16" s="6" t="n">
+        <v>-0.1233024120081475</v>
+      </c>
+      <c r="J16" s="6" t="n">
+        <v>0.05770968004610637</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="1" t="n"/>
       <c r="B17" s="3" t="inlineStr">
         <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C17" s="2" t="inlineStr">
-        <is>
-          <t>-7,99; 3,34</t>
-        </is>
-      </c>
-      <c r="D17" s="2" t="inlineStr">
-        <is>
-          <t>-7,2; 3,04</t>
-        </is>
-      </c>
-      <c r="E17" s="2" t="inlineStr">
-        <is>
-          <t>-8,36; 3,18</t>
-        </is>
-      </c>
-      <c r="F17" s="2" t="inlineStr">
-        <is>
-          <t>-5,5; 6,87</t>
-        </is>
-      </c>
-      <c r="G17" s="2" t="inlineStr">
-        <is>
-          <t>-37,15; 21,58</t>
-        </is>
-      </c>
-      <c r="H17" s="2" t="inlineStr">
-        <is>
-          <t>-38,96; 26,51</t>
-        </is>
-      </c>
-      <c r="I17" s="2" t="inlineStr">
-        <is>
-          <t>-39,18; 20,35</t>
-        </is>
-      </c>
-      <c r="J17" s="2" t="inlineStr">
-        <is>
-          <t>-26,01; 46,78</t>
-        </is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C17" s="5" t="n">
+        <v>-19.91708423194173</v>
+      </c>
+      <c r="D17" s="5" t="n">
+        <v>-13.3241186321682</v>
+      </c>
+      <c r="E17" s="5" t="n">
+        <v>-19.15281134622456</v>
+      </c>
+      <c r="F17" s="5" t="n">
+        <v>-16.09063886922619</v>
+      </c>
+      <c r="G17" s="6" t="n">
+        <v>-0.4981212949143465</v>
+      </c>
+      <c r="H17" s="6" t="n">
+        <v>-0.4164029945517334</v>
+      </c>
+      <c r="I17" s="6" t="n">
+        <v>-0.5013617145768632</v>
+      </c>
+      <c r="J17" s="6" t="n">
+        <v>-0.3476574446143285</v>
       </c>
     </row>
     <row r="18">
-      <c r="A18" t="inlineStr">
+      <c r="A18" s="1" t="n"/>
+      <c r="B18" s="3" t="inlineStr">
+        <is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C18" s="5" t="n">
+        <v>12.6282080231155</v>
+      </c>
+      <c r="D18" s="5" t="n">
+        <v>17.65719473870777</v>
+      </c>
+      <c r="E18" s="5" t="n">
+        <v>14.0486261639894</v>
+      </c>
+      <c r="F18" s="5" t="n">
+        <v>20.76097210984939</v>
+      </c>
+      <c r="G18" s="6" t="n">
+        <v>0.4704301642665484</v>
+      </c>
+      <c r="H18" s="6" t="n">
+        <v>1.034107144511483</v>
+      </c>
+      <c r="I18" s="6" t="n">
+        <v>0.505484083948011</v>
+      </c>
+      <c r="J18" s="6" t="n">
+        <v>0.6866954889618949</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="1" t="inlineStr">
+        <is>
+          <t>65 Y MAS</t>
+        </is>
+      </c>
+      <c r="B19" s="3" t="inlineStr">
+        <is>
+          <t>Estimación</t>
+        </is>
+      </c>
+      <c r="C19" s="5" t="n">
+        <v>6.139876991347437</v>
+      </c>
+      <c r="D19" s="5" t="n">
+        <v>-5.068599596974227</v>
+      </c>
+      <c r="E19" s="5" t="n">
+        <v>-8.543809550237313</v>
+      </c>
+      <c r="F19" s="5" t="n">
+        <v>-12.16738874762067</v>
+      </c>
+      <c r="G19" s="6" t="n">
+        <v>0.1149653385043033</v>
+      </c>
+      <c r="H19" s="6" t="n">
+        <v>-0.09279417022447675</v>
+      </c>
+      <c r="I19" s="6" t="n">
+        <v>-0.1293489554087376</v>
+      </c>
+      <c r="J19" s="6" t="n">
+        <v>-0.2293285827177677</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="1" t="n"/>
+      <c r="B20" s="3" t="inlineStr">
+        <is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C20" s="5" t="n">
+        <v>-16.58590167162508</v>
+      </c>
+      <c r="D20" s="5" t="n">
+        <v>-28.15230434447967</v>
+      </c>
+      <c r="E20" s="5" t="n">
+        <v>-30.46290454996892</v>
+      </c>
+      <c r="F20" s="5" t="n">
+        <v>-37.19918538822174</v>
+      </c>
+      <c r="G20" s="6" t="n">
+        <v>-0.2571741177128575</v>
+      </c>
+      <c r="H20" s="6" t="n">
+        <v>-0.4324519934892531</v>
+      </c>
+      <c r="I20" s="6" t="n">
+        <v>-0.4178864315142115</v>
+      </c>
+      <c r="J20" s="6" t="n">
+        <v>-0.5732992542059044</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="1" t="n"/>
+      <c r="B21" s="3" t="inlineStr">
+        <is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C21" s="5" t="n">
+        <v>27.10825325396546</v>
+      </c>
+      <c r="D21" s="5" t="n">
+        <v>16.15515265807529</v>
+      </c>
+      <c r="E21" s="5" t="n">
+        <v>13.16085235297584</v>
+      </c>
+      <c r="F21" s="5" t="n">
+        <v>9.655049075115123</v>
+      </c>
+      <c r="G21" s="6" t="n">
+        <v>0.6700645661050544</v>
+      </c>
+      <c r="H21" s="6" t="n">
+        <v>0.3880553807260908</v>
+      </c>
+      <c r="I21" s="6" t="n">
+        <v>0.2468433317301059</v>
+      </c>
+      <c r="J21" s="6" t="n">
+        <v>0.213150135081423</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B22" s="3" t="inlineStr">
+        <is>
+          <t>Estimación</t>
+        </is>
+      </c>
+      <c r="C22" s="5" t="n">
+        <v>-3.205798378480684</v>
+      </c>
+      <c r="D22" s="5" t="n">
+        <v>-2.020406057895771</v>
+      </c>
+      <c r="E22" s="5" t="n">
+        <v>-2.603852392448602</v>
+      </c>
+      <c r="F22" s="5" t="n">
+        <v>0.1663599709018776</v>
+      </c>
+      <c r="G22" s="6" t="n">
+        <v>-0.1739842175746</v>
+      </c>
+      <c r="H22" s="6" t="n">
+        <v>-0.1333540929593262</v>
+      </c>
+      <c r="I22" s="6" t="n">
+        <v>-0.1443215325276452</v>
+      </c>
+      <c r="J22" s="6" t="n">
+        <v>0.009274844983008743</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="1" t="n"/>
+      <c r="B23" s="3" t="inlineStr">
+        <is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C23" s="5" t="n">
+        <v>-9.236157348501326</v>
+      </c>
+      <c r="D23" s="5" t="n">
+        <v>-6.560539504802336</v>
+      </c>
+      <c r="E23" s="5" t="n">
+        <v>-7.867233162987137</v>
+      </c>
+      <c r="F23" s="5" t="n">
+        <v>-5.650313331685566</v>
+      </c>
+      <c r="G23" s="6" t="n">
+        <v>-0.4206272251403133</v>
+      </c>
+      <c r="H23" s="6" t="n">
+        <v>-0.3696522256289642</v>
+      </c>
+      <c r="I23" s="6" t="n">
+        <v>-0.3831069891834295</v>
+      </c>
+      <c r="J23" s="6" t="n">
+        <v>-0.2699442096889423</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="1" t="n"/>
+      <c r="B24" s="3" t="inlineStr">
+        <is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C24" s="5" t="n">
+        <v>2.407143471154121</v>
+      </c>
+      <c r="D24" s="5" t="n">
+        <v>3.6203957626669</v>
+      </c>
+      <c r="E24" s="5" t="n">
+        <v>3.559186921269485</v>
+      </c>
+      <c r="F24" s="5" t="n">
+        <v>6.43709198590503</v>
+      </c>
+      <c r="G24" s="6" t="n">
+        <v>0.1620299561118178</v>
+      </c>
+      <c r="H24" s="6" t="n">
+        <v>0.2979880886140921</v>
+      </c>
+      <c r="I24" s="6" t="n">
+        <v>0.2370112251433728</v>
+      </c>
+      <c r="J24" s="6" t="n">
+        <v>0.4362298854916772</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
         <is>
           <t>Fuente: Encuesta Sanitaria y Social de Andalucía (Panel 1 en Medición 4)</t>
         </is>
@@ -1316,16 +1261,16 @@
     </row>
   </sheetData>
   <mergeCells count="10">
-    <mergeCell ref="A8:A9"/>
-    <mergeCell ref="A12:A13"/>
-    <mergeCell ref="A4:A5"/>
+    <mergeCell ref="A7:A9"/>
+    <mergeCell ref="A4:A6"/>
+    <mergeCell ref="A16:A18"/>
+    <mergeCell ref="A10:A12"/>
+    <mergeCell ref="A19:A21"/>
+    <mergeCell ref="C1:F1"/>
+    <mergeCell ref="G1:J1"/>
     <mergeCell ref="A1:B2"/>
-    <mergeCell ref="C1:F1"/>
-    <mergeCell ref="A16:A17"/>
-    <mergeCell ref="G1:J1"/>
-    <mergeCell ref="A6:A7"/>
-    <mergeCell ref="A10:A11"/>
-    <mergeCell ref="A14:A15"/>
+    <mergeCell ref="A22:A24"/>
+    <mergeCell ref="A13:A15"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
